--- a/hardverek.xlsx
+++ b/hardverek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bence\Desktop\szamitogepepites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DFEEB1-B5EC-4DFE-9A04-DDC2DE1072F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2BB6FC-8288-4F6A-AC1A-22A30C879B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10350" yWindow="1770" windowWidth="28800" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8775" yWindow="1620" windowWidth="28800" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>Gépház</t>
   </si>
   <si>
-    <t>Merevlemez</t>
-  </si>
-  <si>
     <t>Processzorhűtő</t>
   </si>
   <si>
@@ -106,13 +103,19 @@
   </si>
   <si>
     <t>Kingston HyperX Cloud II (KHX-HSCP)</t>
+  </si>
+  <si>
+    <t>Meghajtó</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;Ft&quot;;[Red]\-#,##0\ &quot;Ft&quot;"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +129,13 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB9BBBE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,9 +158,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -434,7 +445,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,95 +472,102 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/hardverek.xlsx
+++ b/hardverek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bence\Desktop\szamitogepepites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DFEEB1-B5EC-4DFE-9A04-DDC2DE1072F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF0CAAF-2AD6-4C68-BBA4-A833A3DCA454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10350" yWindow="1770" windowWidth="28800" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8775" yWindow="1620" windowWidth="28800" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -112,6 +112,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;Ft&quot;;[Red]\-#,##0\ &quot;Ft&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,9 +151,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -434,7 +438,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,6 +467,9 @@
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C2" s="2">
+        <v>321520</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -471,6 +478,9 @@
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C3" s="2">
+        <v>100000</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -479,6 +489,9 @@
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C4" s="2">
+        <v>30883</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -487,6 +500,9 @@
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C5" s="2">
+        <v>39790</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -495,6 +511,9 @@
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C6" s="2">
+        <v>45000</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -503,6 +522,9 @@
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C7" s="2">
+        <v>17780</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -511,6 +533,9 @@
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C8" s="2">
+        <v>118000</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -519,6 +544,9 @@
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C9" s="2">
+        <v>15697</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -527,6 +555,9 @@
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C10" s="2">
+        <v>8990</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -535,6 +566,9 @@
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C11" s="2">
+        <v>17499</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -543,6 +577,9 @@
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C12" s="2">
+        <v>97899</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -550,6 +587,9 @@
       </c>
       <c r="B13" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>29890</v>
       </c>
     </row>
   </sheetData>
